--- a/medicine/Mort/Bateau_d'Oseberg/Bateau_d'Oseberg.xlsx
+++ b/medicine/Mort/Bateau_d'Oseberg/Bateau_d'Oseberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bateau_d%27Oseberg</t>
+          <t>Bateau_d'Oseberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bateau d'Oseberg est un bateau viking découvert dans un large monticule funéraire près de la ferme Oseberg, dans la région de Tønsberg dans le Vestfold en Norvège. Il a été dégagé par l'archéologue suédois Gabriel Gustafson, et l'archéologue norvégien Haakon Shetelig en 1904-1905.
 Le bateau et son contenu sont visibles au musée des navires vikings d'Oslo.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bateau_d%27Oseberg</t>
+          <t>Bateau_d'Oseberg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Le bateau</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est constitué de planches clouées, presque toutes en chêne. Il fait 22 mètres de long et 5 mètres de large, avec un mât de 9 à 10 mètres approximativement. Avec une voile d'à peu près 90 m2, ce bateau pouvait atteindre une vitesse de 10 nœuds. Il pouvait accueillir jusqu'à 30 rameurs (chaque côté du navire révèle 15 trous pour les rames). Comme autres équipements on trouve notamment un large gouvernail et une ancre en fer. La proue et la poupe du navire sont sculptées de manière élaborée, dans un style qui est maintenant d'ailleurs appelé « d'Oseberg ». Le bateau a été construit en l'an 820, et a été utilisé dans sa fonction première pendant plusieurs années avant de servir comme sépulture. Même s'il peut naviguer, le bateau reste assez frêle, ce qui laisse à penser qu'il ne devait être utilisé que pour des trajets côtiers.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bateau_d%27Oseberg</t>
+          <t>Bateau_d'Oseberg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Les squelettes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les squelettes de deux femmes ont été trouvés dans la tombe. L'une, âgée de 60-70 ans, avait souffert d'une arthrite sévère ainsi que d'autres maladies. On a d'abord cru que la seconde était âgée de 25-30 ans, mais les analyses de ses racines dentaires ont suggéré qu'elle aurait en fait été âgée de 50-55 ans. On ne sait qui était des deux la plus importante hiérarchiquement ou, si l'une a servi de sacrifice pour accompagner l'autre dans la mort. L'opulence et le contenu de la tombe laissent à penser qu'il s'agit d'une personne de grande importance. L'analyse dendrochronologique des troncs dans la sépulture date l'enterrement à l'automne 834. Bien que l'identité de la femme de haut rang soit inconnue, il a été suggéré que ce soit la reine Åsa du clan Ynglingar (voir Liste des rois de Vestfold et Liste des rois de Norvège), mère de Halfdan III de Vestfold dit Le Noir, et grand-mère de Harald Ier de Norvège dit Belle chevelure. Cette théorie est maintenant généralement rejetée et on pense qu'elle pourrait être une prêtresse (völva). Bien que ce fait n'ait pas été prouvé, les artefacts récemment trouvés ont donné une nouvelle perspective à la découverte.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bateau_d%27Oseberg</t>
+          <t>Bateau_d'Oseberg</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Les objets</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La sépulture a été violée et les métaux précieux manquaient. Néanmoins, un grand nombre d'objets usuels et d'artefacts ont été trouvés durant les fouilles de 1904-1905. Ceci inclut quatre traîneaux à la décoration élaborée, une voiture à cheval en bois à quatre roues richement sculptée, des pieds de lit et des coffres en bois. Quelques outils de maison et d'agriculture ont été également trouvés ainsi qu'une certaine quantité de textiles incluant des vêtements de laine, de la soie importée et des tapisseries de petite taille. La sépulture d'Oseberg est l'un des rares témoignages du textile à l'époque viking et la voiture en bois est la seule retrouvée complète jusqu'à présent.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bateau_d%27Oseberg</t>
+          <t>Bateau_d'Oseberg</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
